--- a/excelTemplate/UNCONTROLLED_MANIFEST_CONTAINER_TEMPLATE.xlsx
+++ b/excelTemplate/UNCONTROLLED_MANIFEST_CONTAINER_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A60D06-5758-A34D-A77B-02E435D4BC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A7649-CC77-6C43-B43C-66A8010834EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3780" windowWidth="30240" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3780" windowWidth="30240" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSIGNMENTS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="227">
   <si>
     <t>MASTER BILL OF LADING</t>
   </si>
@@ -722,6 +722,14 @@
   </si>
   <si>
     <t>&lt;%=rs1.seal_number%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL DESCRIPTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.bl_description%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -775,10 +783,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1108,7 +1115,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1267,166 +1274,172 @@
       <c r="BA1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" s="4" customFormat="1">
-      <c r="A2" s="3" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AO2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AS2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AV2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BA2" s="3" t="s">
         <v>162</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1541,98 +1554,98 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="4" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:31" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1700,47 +1713,47 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1769,11 +1782,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1869,71 +1882,71 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:22" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2038,20 +2051,20 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>218</v>
       </c>
     </row>
